--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,39 +43,36 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -85,136 +82,127 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>important</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>make</t>
   </si>
   <si>
     <t>online</t>
@@ -223,19 +211,25 @@
     <t>shopping</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -599,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +601,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>33</v>
@@ -668,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9545454545454546</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -718,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7157534246575342</v>
+        <v>0.6541095890410958</v>
       </c>
       <c r="C6">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D6">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,16 +933,16 @@
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3825503355704698</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1018,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3372093023255814</v>
+        <v>0.36</v>
       </c>
       <c r="C10">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8414634146341463</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L10">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.32</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3015873015873016</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C12">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2597402597402597</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8125</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2111111111111111</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1746031746031746</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,69 +1280,45 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L15">
+        <v>22</v>
+      </c>
+      <c r="M15">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K15">
-        <v>0.7872340425531915</v>
-      </c>
-      <c r="L15">
-        <v>37</v>
-      </c>
-      <c r="M15">
-        <v>37</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.1045576407506702</v>
-      </c>
-      <c r="C16">
-        <v>39</v>
-      </c>
-      <c r="D16">
-        <v>39</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>334</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.775</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7676056338028169</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.7619047619047619</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1438,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.75625</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L20">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="M20">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1464,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7452830188679245</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L21">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1490,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7254901960784313</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1516,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.675</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1542,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1568,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6595744680851063</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="M25">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1594,15 +1564,15 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6458333333333334</v>
+        <v>0.62</v>
       </c>
       <c r="L26">
         <v>31</v>
@@ -1620,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1646,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6135770234986945</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L28">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1672,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>148</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6046511627906976</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1698,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5882352941176471</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1724,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5777777777777777</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1750,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.55</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1776,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5647058823529412</v>
+        <v>0.535593220338983</v>
       </c>
       <c r="L33">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="M33">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1802,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5288135593220339</v>
+        <v>0.525</v>
       </c>
       <c r="L34">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1828,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.525</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1854,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4923076923076923</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1880,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.484375</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1906,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.475</v>
+        <v>0.453125</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1932,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4719101123595505</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L39">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1958,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.4560669456066946</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L40">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1984,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>130</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4523809523809524</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2010,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.4487179487179487</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2036,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3972602739726027</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2062,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>44</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3571428571428572</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L44">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2088,41 +2058,41 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>45</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.2676056338028169</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>52</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.1496062992125984</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L46">
         <v>19</v>
@@ -2140,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>108</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.1052631578947368</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L47">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M47">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2166,47 +2136,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>374</v>
+        <v>837</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.0889423076923077</v>
+        <v>0.05828220858895705</v>
       </c>
       <c r="L48">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>379</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.06152125279642058</v>
+        <v>0.05438401775804662</v>
       </c>
       <c r="L49">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M49">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2218,73 +2188,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.04328523862375139</v>
+        <v>0.04930662557781202</v>
       </c>
       <c r="L50">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>862</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.04314329738058552</v>
+        <v>0.02758298270219729</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>621</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.02998846597462514</v>
+        <v>0.02306805074971165</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2296,85 +2266,59 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.02897196261682243</v>
+        <v>0.01676337846550613</v>
       </c>
       <c r="L53">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M53">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2078</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.01805869074492099</v>
+        <v>0.005941213258286429</v>
       </c>
       <c r="L54">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N54">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="O54">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>3045</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K55">
-        <v>0.007507037847982484</v>
-      </c>
-      <c r="L55">
-        <v>24</v>
-      </c>
-      <c r="M55">
-        <v>28</v>
-      </c>
-      <c r="N55">
-        <v>0.86</v>
-      </c>
-      <c r="O55">
-        <v>0.14</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>3173</v>
+        <v>3179</v>
       </c>
     </row>
   </sheetData>
